--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56609.8383456124</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56609.8383456124</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113275050.277606</v>
+        <v>46471618.18713927</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10063.16716510171</v>
+        <v>1140519.686659091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18676.01447071218</v>
+        <v>2053568.040900222</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27288.86177632264</v>
+        <v>2966616.395141354</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35926.44539564965</v>
+        <v>3879672.161567112</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44564.08258159836</v>
+        <v>4792720.515808244</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53201.71976754705</v>
+        <v>5705768.870049375</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61839.35695349576</v>
+        <v>6618817.224290503</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70476.7972503574</v>
+        <v>7531865.57853163</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79114.32670454148</v>
+        <v>8444913.932772759</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87752.05304781259</v>
+        <v>9357962.287013886</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96389.69023376126</v>
+        <v>10271010.64125502</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105027.3274197099</v>
+        <v>11184058.99549616</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113664.9646056586</v>
+        <v>12097107.3497373</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122302.6017916073</v>
+        <v>13010155.70397843</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130940.238977556</v>
+        <v>13923204.05821957</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,10 +27052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
